--- a/Расчет частоты.xlsx
+++ b/Расчет частоты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32F_Project\studyMCU_407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC1142-F784-4BB2-952D-B98FBA14C120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486FF584-92A9-4285-B21A-6ADD0DF16161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Тактовая частота МК</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>Расчет частоты для WS2812</t>
+  </si>
+  <si>
+    <t>кГц</t>
   </si>
 </sst>
 </file>
@@ -119,18 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -140,6 +137,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,36 +440,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -476,20 +497,22 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -516,11 +539,11 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1">
         <v>23</v>
       </c>
@@ -528,62 +551,84 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="I5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1">
         <v>49</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
+        <v>29</v>
+      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1">
         <f>1/(D1/(D5+1)/(D6+1))</f>
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11">
+        <f>D1*1000000/(L5+1)/(L6+1)</f>
+        <v>800000</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <f>L7/1000</f>
+        <v>800</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -596,17 +641,29 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
+        <f>1/L7*10^6</f>
+        <v>1.25</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -621,12 +678,12 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -660,16 +717,16 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <v>47</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -683,16 +740,16 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>199</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -706,17 +763,17 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <f>D1*1000000/(D12+1)/(D13+1)</f>
         <v>2500</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1"/>
@@ -732,31 +789,31 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <f>1/D14*10^6</f>
         <v>400</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -768,33 +825,33 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -806,93 +863,161 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="21">
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:D3"/>

--- a/Расчет частоты.xlsx
+++ b/Расчет частоты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32F_Project\studyMCU_407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\studyMCU_407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486FF584-92A9-4285-B21A-6ADD0DF16161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CFE73-0B59-4ECF-BC58-31D18C482DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Тактовая частота МК</t>
   </si>
@@ -33,9 +33,6 @@
     <t>МГц</t>
   </si>
   <si>
-    <t>Расчет частоты для Modbas</t>
-  </si>
-  <si>
     <t>Prescaler</t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>кГц</t>
+  </si>
+  <si>
+    <t>Расчет частоты для Modbas: TIM4</t>
+  </si>
+  <si>
+    <t>Cек</t>
+  </si>
+  <si>
+    <t>мкСек</t>
+  </si>
+  <si>
+    <t>Расчет частоты для CPU temperature: TIM3</t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -125,13 +140,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,26 +178,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,21 +470,22 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1">
         <v>24</v>
       </c>
@@ -467,10 +495,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -497,23 +525,23 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="1"/>
+      <c r="I3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -539,11 +567,11 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1">
         <v>23</v>
       </c>
@@ -552,82 +580,82 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="L5" s="6">
+        <v>2399</v>
+      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1">
         <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="11">
-        <v>29</v>
-      </c>
-      <c r="M6" s="11"/>
+      <c r="L6" s="6">
+        <v>9999</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1">
         <f>1/(D1/(D5+1)/(D6+1))</f>
         <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="11">
+      <c r="L7" s="6">
         <f>D1*1000000/(L5+1)/(L6+1)</f>
-        <v>800000</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="N7" s="1">
         <f>L7/1000</f>
-        <v>800</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
+        <v>1E-3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -642,19 +670,24 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="L8" s="6">
         <f>1/L7*10^6</f>
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <f>L8*10^-6</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
@@ -678,20 +711,22 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -719,22 +754,26 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>47</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="I12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -742,22 +781,26 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>199</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="6">
+        <v>29</v>
+      </c>
+      <c r="M13" s="6"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -765,55 +808,74 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <f>D1*1000000/(D12+1)/(D13+1)</f>
         <v>2500</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>6</v>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="I14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="6">
+        <f>D1*1000000/(L12+1)/(L13+1)</f>
+        <v>800000</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <f>L14/1000</f>
+        <v>800</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <f>1/D14*10^6</f>
         <v>400</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>5</v>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="I15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="6">
+        <f>1/L14*10^6</f>
+        <v>1.25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -825,33 +887,33 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -863,164 +925,153 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="26">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
@@ -1028,6 +1079,22 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
